--- a/src/donnees/save_clustering_cnn_kmedoids.xlsx
+++ b/src/donnees/save_clustering_cnn_kmedoids.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -2327,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
@@ -2616,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
@@ -2752,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -3041,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="E153" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="E154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="E155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="E157" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="E158" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="E163" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165">
@@ -3262,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="E166" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>3</v>
       </c>
       <c r="E167" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="E169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="E170" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="E173" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="E178" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="E179" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="E180" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="E181" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E183" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="E185" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="E186" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
@@ -3636,7 +3636,7 @@
         <v>3</v>
       </c>
       <c r="E188" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="E191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>3</v>
       </c>
       <c r="E192" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="E193" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="E195" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="E196" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="E197" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="E198" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
@@ -3840,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="E200" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="E202" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>4</v>
       </c>
       <c r="E203" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>4</v>
       </c>
       <c r="E204" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>4</v>
       </c>
       <c r="E205" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>4</v>
       </c>
       <c r="E206" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>4</v>
       </c>
       <c r="E207" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>4</v>
       </c>
       <c r="E208" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="E209" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="E210" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="E211" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
       <c r="E212" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="E213" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>4</v>
       </c>
       <c r="E214" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
@@ -4112,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="E216" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="E218" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>4</v>
       </c>
       <c r="E219" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="E221" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="E222" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>4</v>
       </c>
       <c r="E223" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="E224" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>4</v>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="E226" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="E227" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228">
@@ -4333,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="E229" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="E230" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="E231" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="E232" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>4</v>
       </c>
       <c r="E233" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -4435,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="E237" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="E238" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="E239" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="E240" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="E241" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="E242" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>4</v>
       </c>
       <c r="E243" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>4</v>
       </c>
       <c r="E244" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="E245" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>4</v>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="E247" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
@@ -4673,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="E249" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="E250" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="E251" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="E252" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="E253" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>5</v>
       </c>
       <c r="E254" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>5</v>
       </c>
       <c r="E255" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="E256" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>5</v>
       </c>
       <c r="E257" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258">
@@ -4843,7 +4843,7 @@
         <v>5</v>
       </c>
       <c r="E259" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="E260" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>5</v>
       </c>
       <c r="E261" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>5</v>
       </c>
       <c r="E262" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="E263" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>5</v>
       </c>
       <c r="E264" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>5</v>
       </c>
       <c r="E265" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266">
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="E267" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="E268" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="E269" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="E270" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>5</v>
       </c>
       <c r="E271" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>5</v>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="E273" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>5</v>
       </c>
       <c r="E274" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="E275" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>5</v>
       </c>
       <c r="E276" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>5</v>
       </c>
       <c r="E277" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -5183,7 +5183,7 @@
         <v>5</v>
       </c>
       <c r="E279" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="E280" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>5</v>
       </c>
       <c r="E281" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="E282" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="E283" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284">
@@ -5285,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="E285" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>5</v>
       </c>
       <c r="E286" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="E287" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="E288" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>5</v>
       </c>
       <c r="E289" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>5</v>
       </c>
       <c r="E290" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>5</v>
       </c>
       <c r="E291" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>5</v>
       </c>
       <c r="E292" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293">
@@ -5438,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="E294" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>5</v>
       </c>
       <c r="E295" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296">
@@ -5489,7 +5489,7 @@
         <v>5</v>
       </c>
       <c r="E297" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>5</v>
       </c>
       <c r="E298" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>5</v>
       </c>
       <c r="E299" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>5</v>
       </c>
       <c r="E300" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="E301" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>6</v>
       </c>
       <c r="E302" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="E303" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="E304" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="E305" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>6</v>
       </c>
       <c r="E306" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>6</v>
       </c>
       <c r="E307" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>6</v>
       </c>
       <c r="E308" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>6</v>
       </c>
       <c r="E309" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>6</v>
       </c>
       <c r="E310" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>6</v>
       </c>
       <c r="E311" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>6</v>
       </c>
       <c r="E312" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="E313" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>6</v>
       </c>
       <c r="E314" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>6</v>
       </c>
       <c r="E315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>6</v>
       </c>
       <c r="E316" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>6</v>
       </c>
       <c r="E317" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>6</v>
       </c>
       <c r="E318" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>6</v>
       </c>
       <c r="E319" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="E320" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>6</v>
       </c>
       <c r="E321" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>6</v>
       </c>
       <c r="E322" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>6</v>
       </c>
       <c r="E323" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="E324" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="E325" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="E326" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>6</v>
       </c>
       <c r="E327" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>6</v>
       </c>
       <c r="E328" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>6</v>
       </c>
       <c r="E329" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>6</v>
       </c>
       <c r="E330" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>6</v>
       </c>
       <c r="E331" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>6</v>
       </c>
       <c r="E332" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>6</v>
       </c>
       <c r="E333" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="E334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>6</v>
       </c>
       <c r="E335" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="E336" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>6</v>
       </c>
       <c r="E337" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>6</v>
       </c>
       <c r="E338" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>6</v>
       </c>
       <c r="E339" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>6</v>
       </c>
       <c r="E340" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>6</v>
       </c>
       <c r="E341" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>6</v>
       </c>
       <c r="E342" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>6</v>
       </c>
       <c r="E343" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>6</v>
       </c>
       <c r="E344" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>6</v>
       </c>
       <c r="E345" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>6</v>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>6</v>
       </c>
       <c r="E347" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>6</v>
       </c>
       <c r="E348" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>6</v>
       </c>
       <c r="E349" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>6</v>
       </c>
       <c r="E350" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>6</v>
       </c>
       <c r="E351" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378">
@@ -6883,7 +6883,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384">
@@ -6985,7 +6985,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390">
@@ -7087,7 +7087,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>8</v>
       </c>
       <c r="E402" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="E403" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404">
@@ -7325,7 +7325,7 @@
         <v>8</v>
       </c>
       <c r="E405" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>8</v>
       </c>
       <c r="E406" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>8</v>
       </c>
       <c r="E407" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>8</v>
       </c>
       <c r="E408" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>8</v>
       </c>
       <c r="E409" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410">
@@ -7427,7 +7427,7 @@
         <v>8</v>
       </c>
       <c r="E411" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>8</v>
       </c>
       <c r="E412" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413">
@@ -7478,7 +7478,7 @@
         <v>8</v>
       </c>
       <c r="E414" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>8</v>
       </c>
       <c r="E415" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>8</v>
       </c>
       <c r="E416" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>8</v>
       </c>
       <c r="E417" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>8</v>
       </c>
       <c r="E418" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>8</v>
       </c>
       <c r="E419" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>8</v>
       </c>
       <c r="E420" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>8</v>
       </c>
       <c r="E421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>8</v>
       </c>
       <c r="E422" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>8</v>
       </c>
       <c r="E423" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>8</v>
       </c>
       <c r="E424" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>8</v>
       </c>
       <c r="E425" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -7699,7 +7699,7 @@
         <v>8</v>
       </c>
       <c r="E427" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428">
@@ -7733,7 +7733,7 @@
         <v>8</v>
       </c>
       <c r="E429" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>8</v>
       </c>
       <c r="E430" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="431">
@@ -7784,7 +7784,7 @@
         <v>8</v>
       </c>
       <c r="E432" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>8</v>
       </c>
       <c r="E433" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>8</v>
       </c>
       <c r="E434" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="435">
@@ -7852,7 +7852,7 @@
         <v>8</v>
       </c>
       <c r="E436" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>8</v>
       </c>
       <c r="E437" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438">
@@ -7903,7 +7903,7 @@
         <v>8</v>
       </c>
       <c r="E439" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="440">
@@ -7937,7 +7937,7 @@
         <v>8</v>
       </c>
       <c r="E441" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>8</v>
       </c>
       <c r="E442" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>8</v>
       </c>
       <c r="E443" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444">
@@ -8005,7 +8005,7 @@
         <v>8</v>
       </c>
       <c r="E445" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>8</v>
       </c>
       <c r="E446" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>8</v>
       </c>
       <c r="E447" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>8</v>
       </c>
       <c r="E448" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="449">
@@ -8107,7 +8107,7 @@
         <v>8</v>
       </c>
       <c r="E451" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>9</v>
       </c>
       <c r="E452" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>9</v>
       </c>
       <c r="E453" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>9</v>
       </c>
       <c r="E454" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="455">
@@ -8192,7 +8192,7 @@
         <v>9</v>
       </c>
       <c r="E456" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>9</v>
       </c>
       <c r="E457" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -8243,7 +8243,7 @@
         <v>9</v>
       </c>
       <c r="E459" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>9</v>
       </c>
       <c r="E460" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>9</v>
       </c>
       <c r="E461" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>9</v>
       </c>
       <c r="E462" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>9</v>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>9</v>
       </c>
       <c r="E464" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>9</v>
       </c>
       <c r="E465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>9</v>
       </c>
       <c r="E466" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>9</v>
       </c>
       <c r="E467" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>9</v>
       </c>
       <c r="E468" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>9</v>
       </c>
       <c r="E469" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>9</v>
       </c>
       <c r="E470" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>9</v>
       </c>
       <c r="E471" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>9</v>
       </c>
       <c r="E472" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>9</v>
       </c>
       <c r="E473" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>9</v>
       </c>
       <c r="E474" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="475">
@@ -8549,7 +8549,7 @@
         <v>9</v>
       </c>
       <c r="E477" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>9</v>
       </c>
       <c r="E478" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>9</v>
       </c>
       <c r="E479" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>9</v>
       </c>
       <c r="E480" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>9</v>
       </c>
       <c r="E481" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>9</v>
       </c>
       <c r="E482" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>9</v>
       </c>
       <c r="E483" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>9</v>
       </c>
       <c r="E484" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>9</v>
       </c>
       <c r="E485" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>9</v>
       </c>
       <c r="E486" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>9</v>
       </c>
       <c r="E487" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>9</v>
       </c>
       <c r="E488" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>9</v>
       </c>
       <c r="E489" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>9</v>
       </c>
       <c r="E490" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>9</v>
       </c>
       <c r="E491" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>9</v>
       </c>
       <c r="E492" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>9</v>
       </c>
       <c r="E493" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>9</v>
       </c>
       <c r="E494" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>9</v>
       </c>
       <c r="E495" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>9</v>
       </c>
       <c r="E496" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>9</v>
       </c>
       <c r="E497" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>9</v>
       </c>
       <c r="E498" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>9</v>
       </c>
       <c r="E499" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>9</v>
       </c>
       <c r="E500" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>9</v>
       </c>
       <c r="E501" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>10</v>
       </c>
       <c r="E502" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>10</v>
       </c>
       <c r="E503" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>10</v>
       </c>
       <c r="E504" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>10</v>
       </c>
       <c r="E505" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>10</v>
       </c>
       <c r="E506" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>10</v>
       </c>
       <c r="E507" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>10</v>
       </c>
       <c r="E508" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>10</v>
       </c>
       <c r="E509" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>10</v>
       </c>
       <c r="E510" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>10</v>
       </c>
       <c r="E511" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>10</v>
       </c>
       <c r="E512" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>10</v>
       </c>
       <c r="E513" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>10</v>
       </c>
       <c r="E514" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>10</v>
       </c>
       <c r="E515" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>10</v>
       </c>
       <c r="E516" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>10</v>
       </c>
       <c r="E517" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>10</v>
       </c>
       <c r="E518" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>10</v>
       </c>
       <c r="E519" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>10</v>
       </c>
       <c r="E520" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>10</v>
       </c>
       <c r="E521" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>10</v>
       </c>
       <c r="E522" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>10</v>
       </c>
       <c r="E523" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>10</v>
       </c>
       <c r="E524" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>10</v>
       </c>
       <c r="E525" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>10</v>
       </c>
       <c r="E526" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>10</v>
       </c>
       <c r="E527" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>10</v>
       </c>
       <c r="E528" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>10</v>
       </c>
       <c r="E529" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>10</v>
       </c>
       <c r="E530" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>10</v>
       </c>
       <c r="E531" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>10</v>
       </c>
       <c r="E532" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>10</v>
       </c>
       <c r="E533" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>10</v>
       </c>
       <c r="E534" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>10</v>
       </c>
       <c r="E535" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>10</v>
       </c>
       <c r="E536" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>10</v>
       </c>
       <c r="E537" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>10</v>
       </c>
       <c r="E538" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>10</v>
       </c>
       <c r="E539" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>10</v>
       </c>
       <c r="E540" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>10</v>
       </c>
       <c r="E541" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>10</v>
       </c>
       <c r="E542" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>10</v>
       </c>
       <c r="E543" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>10</v>
       </c>
       <c r="E544" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>10</v>
       </c>
       <c r="E545" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>10</v>
       </c>
       <c r="E546" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>10</v>
       </c>
       <c r="E547" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>10</v>
       </c>
       <c r="E548" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>10</v>
       </c>
       <c r="E549" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>10</v>
       </c>
       <c r="E550" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>10</v>
       </c>
       <c r="E551" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552">
@@ -9841,7 +9841,7 @@
         <v>11</v>
       </c>
       <c r="E553" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>11</v>
       </c>
       <c r="E554" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>11</v>
       </c>
       <c r="E555" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>11</v>
       </c>
       <c r="E556" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>11</v>
       </c>
       <c r="E557" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>11</v>
       </c>
       <c r="E558" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>11</v>
       </c>
       <c r="E559" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>11</v>
       </c>
       <c r="E560" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>11</v>
       </c>
       <c r="E561" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="562">
@@ -10011,7 +10011,7 @@
         <v>11</v>
       </c>
       <c r="E563" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>11</v>
       </c>
       <c r="E564" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>11</v>
       </c>
       <c r="E565" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>11</v>
       </c>
       <c r="E566" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>11</v>
       </c>
       <c r="E567" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>11</v>
       </c>
       <c r="E568" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>11</v>
       </c>
       <c r="E569" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>11</v>
       </c>
       <c r="E570" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>11</v>
       </c>
       <c r="E571" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>11</v>
       </c>
       <c r="E572" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573">
@@ -10198,7 +10198,7 @@
         <v>11</v>
       </c>
       <c r="E574" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>11</v>
       </c>
       <c r="E575" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>11</v>
       </c>
       <c r="E576" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="577">
@@ -10266,7 +10266,7 @@
         <v>11</v>
       </c>
       <c r="E578" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>11</v>
       </c>
       <c r="E579" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>11</v>
       </c>
       <c r="E580" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>11</v>
       </c>
       <c r="E581" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>11</v>
       </c>
       <c r="E582" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>11</v>
       </c>
       <c r="E583" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="584">
@@ -10385,7 +10385,7 @@
         <v>11</v>
       </c>
       <c r="E585" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>11</v>
       </c>
       <c r="E586" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>11</v>
       </c>
       <c r="E587" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>11</v>
       </c>
       <c r="E588" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>11</v>
       </c>
       <c r="E589" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>11</v>
       </c>
       <c r="E590" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>11</v>
       </c>
       <c r="E591" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>11</v>
       </c>
       <c r="E592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>11</v>
       </c>
       <c r="E593" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>11</v>
       </c>
       <c r="E594" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>11</v>
       </c>
       <c r="E595" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>11</v>
       </c>
       <c r="E596" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>11</v>
       </c>
       <c r="E597" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>11</v>
       </c>
       <c r="E598" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>11</v>
       </c>
       <c r="E599" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>12</v>
       </c>
       <c r="E600" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>12</v>
       </c>
       <c r="E601" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>12</v>
       </c>
       <c r="E602" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>12</v>
       </c>
       <c r="E603" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>12</v>
       </c>
       <c r="E604" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="605">
@@ -10742,7 +10742,7 @@
         <v>12</v>
       </c>
       <c r="E606" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>12</v>
       </c>
       <c r="E607" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>12</v>
       </c>
       <c r="E608" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>12</v>
       </c>
       <c r="E609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -10844,7 +10844,7 @@
         <v>12</v>
       </c>
       <c r="E612" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="613">
@@ -10861,7 +10861,7 @@
         <v>12</v>
       </c>
       <c r="E613" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614">
@@ -10878,7 +10878,7 @@
         <v>12</v>
       </c>
       <c r="E614" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>12</v>
       </c>
       <c r="E615" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>12</v>
       </c>
       <c r="E616" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>12</v>
       </c>
       <c r="E617" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="618">
@@ -10946,7 +10946,7 @@
         <v>12</v>
       </c>
       <c r="E618" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="619">
@@ -10963,7 +10963,7 @@
         <v>12</v>
       </c>
       <c r="E619" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>12</v>
       </c>
       <c r="E620" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>12</v>
       </c>
       <c r="E621" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="E622" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>12</v>
       </c>
       <c r="E623" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>12</v>
       </c>
       <c r="E624" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>12</v>
       </c>
       <c r="E625" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>12</v>
       </c>
       <c r="E626" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>12</v>
       </c>
       <c r="E627" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -11116,7 +11116,7 @@
         <v>12</v>
       </c>
       <c r="E628" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="629">
@@ -11133,7 +11133,7 @@
         <v>12</v>
       </c>
       <c r="E629" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>12</v>
       </c>
       <c r="E630" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="E631" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="632">
@@ -11184,7 +11184,7 @@
         <v>12</v>
       </c>
       <c r="E632" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="633">
@@ -11201,7 +11201,7 @@
         <v>12</v>
       </c>
       <c r="E633" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>12</v>
       </c>
       <c r="E634" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>12</v>
       </c>
       <c r="E635" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>12</v>
       </c>
       <c r="E636" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>12</v>
       </c>
       <c r="E637" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>12</v>
       </c>
       <c r="E638" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>12</v>
       </c>
       <c r="E639" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>12</v>
       </c>
       <c r="E640" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>12</v>
       </c>
       <c r="E641" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="642">
@@ -11354,7 +11354,7 @@
         <v>12</v>
       </c>
       <c r="E642" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="643">
@@ -11371,7 +11371,7 @@
         <v>12</v>
       </c>
       <c r="E643" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="644">
@@ -11405,7 +11405,7 @@
         <v>12</v>
       </c>
       <c r="E645" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="646">
@@ -11422,7 +11422,7 @@
         <v>12</v>
       </c>
       <c r="E646" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="647">
@@ -11439,7 +11439,7 @@
         <v>12</v>
       </c>
       <c r="E647" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="648">
@@ -11456,7 +11456,7 @@
         <v>12</v>
       </c>
       <c r="E648" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="649">
@@ -11473,7 +11473,7 @@
         <v>12</v>
       </c>
       <c r="E649" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>13</v>
       </c>
       <c r="E650" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>13</v>
       </c>
       <c r="E651" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="652">
@@ -11541,7 +11541,7 @@
         <v>13</v>
       </c>
       <c r="E653" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>13</v>
       </c>
       <c r="E654" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>13</v>
       </c>
       <c r="E655" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>13</v>
       </c>
       <c r="E656" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>13</v>
       </c>
       <c r="E657" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>13</v>
       </c>
       <c r="E658" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="659">
@@ -11643,7 +11643,7 @@
         <v>13</v>
       </c>
       <c r="E659" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660">
@@ -11677,7 +11677,7 @@
         <v>13</v>
       </c>
       <c r="E661" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>13</v>
       </c>
       <c r="E662" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>13</v>
       </c>
       <c r="E663" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>13</v>
       </c>
       <c r="E664" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>13</v>
       </c>
       <c r="E665" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>13</v>
       </c>
       <c r="E666" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>13</v>
       </c>
       <c r="E667" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>13</v>
       </c>
       <c r="E668" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>13</v>
       </c>
       <c r="E669" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>13</v>
       </c>
       <c r="E670" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>13</v>
       </c>
       <c r="E671" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>13</v>
       </c>
       <c r="E672" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>13</v>
       </c>
       <c r="E673" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>13</v>
       </c>
       <c r="E674" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="675">
@@ -11932,7 +11932,7 @@
         <v>13</v>
       </c>
       <c r="E676" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>13</v>
       </c>
       <c r="E677" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>13</v>
       </c>
       <c r="E678" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="679">
@@ -11983,7 +11983,7 @@
         <v>13</v>
       </c>
       <c r="E679" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="680">
@@ -12000,7 +12000,7 @@
         <v>13</v>
       </c>
       <c r="E680" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>13</v>
       </c>
       <c r="E681" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>13</v>
       </c>
       <c r="E682" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>13</v>
       </c>
       <c r="E683" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>13</v>
       </c>
       <c r="E684" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="685">
@@ -12085,7 +12085,7 @@
         <v>13</v>
       </c>
       <c r="E685" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="686">
@@ -12102,7 +12102,7 @@
         <v>13</v>
       </c>
       <c r="E686" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>13</v>
       </c>
       <c r="E687" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>13</v>
       </c>
       <c r="E688" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>13</v>
       </c>
       <c r="E689" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>14</v>
       </c>
       <c r="E690" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>14</v>
       </c>
       <c r="E691" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>14</v>
       </c>
       <c r="E692" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>14</v>
       </c>
       <c r="E693" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="694">
@@ -12255,7 +12255,7 @@
         <v>14</v>
       </c>
       <c r="E695" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>14</v>
       </c>
       <c r="E696" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>14</v>
       </c>
       <c r="E697" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>14</v>
       </c>
       <c r="E698" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>14</v>
       </c>
       <c r="E699" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>14</v>
       </c>
       <c r="E700" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>14</v>
       </c>
       <c r="E701" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>14</v>
       </c>
       <c r="E702" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>14</v>
       </c>
       <c r="E703" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>14</v>
       </c>
       <c r="E704" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>14</v>
       </c>
       <c r="E705" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>14</v>
       </c>
       <c r="E706" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>14</v>
       </c>
       <c r="E707" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>14</v>
       </c>
       <c r="E708" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>14</v>
       </c>
       <c r="E709" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>14</v>
       </c>
       <c r="E710" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>14</v>
       </c>
       <c r="E711" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>14</v>
       </c>
       <c r="E712" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>14</v>
       </c>
       <c r="E713" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>14</v>
       </c>
       <c r="E714" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>14</v>
       </c>
       <c r="E715" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="716">
@@ -12629,7 +12629,7 @@
         <v>14</v>
       </c>
       <c r="E717" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>14</v>
       </c>
       <c r="E718" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>14</v>
       </c>
       <c r="E719" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>14</v>
       </c>
       <c r="E720" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>14</v>
       </c>
       <c r="E721" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>14</v>
       </c>
       <c r="E722" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="723">
@@ -12765,7 +12765,7 @@
         <v>14</v>
       </c>
       <c r="E725" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>14</v>
       </c>
       <c r="E726" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>14</v>
       </c>
       <c r="E727" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>14</v>
       </c>
       <c r="E728" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>14</v>
       </c>
       <c r="E729" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>15</v>
       </c>
       <c r="E730" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>15</v>
       </c>
       <c r="E731" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>15</v>
       </c>
       <c r="E732" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>15</v>
       </c>
       <c r="E733" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>15</v>
       </c>
       <c r="E734" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>15</v>
       </c>
       <c r="E735" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>15</v>
       </c>
       <c r="E736" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>15</v>
       </c>
       <c r="E737" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>15</v>
       </c>
       <c r="E738" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>15</v>
       </c>
       <c r="E739" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="740">
@@ -13020,7 +13020,7 @@
         <v>15</v>
       </c>
       <c r="E740" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="741">
@@ -13037,7 +13037,7 @@
         <v>15</v>
       </c>
       <c r="E741" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>15</v>
       </c>
       <c r="E742" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>15</v>
       </c>
       <c r="E743" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>15</v>
       </c>
       <c r="E744" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>15</v>
       </c>
       <c r="E745" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>15</v>
       </c>
       <c r="E746" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>15</v>
       </c>
       <c r="E747" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>15</v>
       </c>
       <c r="E748" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>15</v>
       </c>
       <c r="E749" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>15</v>
       </c>
       <c r="E750" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>15</v>
       </c>
       <c r="E751" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>15</v>
       </c>
       <c r="E752" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>15</v>
       </c>
       <c r="E753" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>15</v>
       </c>
       <c r="E754" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>16</v>
       </c>
       <c r="E755" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>16</v>
       </c>
       <c r="E756" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="757">
@@ -13309,7 +13309,7 @@
         <v>16</v>
       </c>
       <c r="E757" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="758">
@@ -13326,7 +13326,7 @@
         <v>16</v>
       </c>
       <c r="E758" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759">
@@ -13360,7 +13360,7 @@
         <v>16</v>
       </c>
       <c r="E760" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761">
@@ -13377,7 +13377,7 @@
         <v>16</v>
       </c>
       <c r="E761" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="762">
@@ -13394,7 +13394,7 @@
         <v>16</v>
       </c>
       <c r="E762" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>16</v>
       </c>
       <c r="E763" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>16</v>
       </c>
       <c r="E764" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>16</v>
       </c>
       <c r="E765" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="766">
@@ -13479,7 +13479,7 @@
         <v>16</v>
       </c>
       <c r="E767" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768">
@@ -13496,7 +13496,7 @@
         <v>16</v>
       </c>
       <c r="E768" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>16</v>
       </c>
       <c r="E769" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="770">
@@ -13530,7 +13530,7 @@
         <v>16</v>
       </c>
       <c r="E770" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="771">
@@ -13547,7 +13547,7 @@
         <v>16</v>
       </c>
       <c r="E771" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="E772" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>16</v>
       </c>
       <c r="E773" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>16</v>
       </c>
       <c r="E774" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>16</v>
       </c>
       <c r="E775" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="776">
@@ -13683,7 +13683,7 @@
         <v>16</v>
       </c>
       <c r="E779" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>16</v>
       </c>
       <c r="E780" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="781">
@@ -13734,7 +13734,7 @@
         <v>16</v>
       </c>
       <c r="E782" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="783">
@@ -13768,7 +13768,7 @@
         <v>16</v>
       </c>
       <c r="E784" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -13802,7 +13802,7 @@
         <v>16</v>
       </c>
       <c r="E786" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>16</v>
       </c>
       <c r="E787" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>16</v>
       </c>
       <c r="E788" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="789">
@@ -13853,7 +13853,7 @@
         <v>16</v>
       </c>
       <c r="E789" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790">
@@ -13870,7 +13870,7 @@
         <v>16</v>
       </c>
       <c r="E790" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="791">
@@ -13904,7 +13904,7 @@
         <v>16</v>
       </c>
       <c r="E792" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>16</v>
       </c>
       <c r="E793" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>16</v>
       </c>
       <c r="E794" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>16</v>
       </c>
       <c r="E795" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>16</v>
       </c>
       <c r="E796" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>16</v>
       </c>
       <c r="E797" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="798">
@@ -14006,7 +14006,7 @@
         <v>16</v>
       </c>
       <c r="E798" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="799">
@@ -14040,7 +14040,7 @@
         <v>16</v>
       </c>
       <c r="E800" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="801">
@@ -14074,7 +14074,7 @@
         <v>16</v>
       </c>
       <c r="E802" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="803">
@@ -14108,7 +14108,7 @@
         <v>16</v>
       </c>
       <c r="E804" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>17</v>
       </c>
       <c r="E805" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="806">
@@ -14142,7 +14142,7 @@
         <v>17</v>
       </c>
       <c r="E806" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="807">
@@ -14159,7 +14159,7 @@
         <v>17</v>
       </c>
       <c r="E807" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>17</v>
       </c>
       <c r="E808" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>17</v>
       </c>
       <c r="E809" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>17</v>
       </c>
       <c r="E810" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>17</v>
       </c>
       <c r="E811" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>17</v>
       </c>
       <c r="E812" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>17</v>
       </c>
       <c r="E813" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>17</v>
       </c>
       <c r="E814" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>17</v>
       </c>
       <c r="E815" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>17</v>
       </c>
       <c r="E816" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>17</v>
       </c>
       <c r="E817" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>17</v>
       </c>
       <c r="E818" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>17</v>
       </c>
       <c r="E819" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>17</v>
       </c>
       <c r="E820" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>17</v>
       </c>
       <c r="E821" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>17</v>
       </c>
       <c r="E822" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="823">
@@ -14448,7 +14448,7 @@
         <v>17</v>
       </c>
       <c r="E824" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>17</v>
       </c>
       <c r="E825" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>17</v>
       </c>
       <c r="E826" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>17</v>
       </c>
       <c r="E827" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>17</v>
       </c>
       <c r="E828" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>17</v>
       </c>
       <c r="E829" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>17</v>
       </c>
       <c r="E830" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>17</v>
       </c>
       <c r="E831" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>17</v>
       </c>
       <c r="E832" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>17</v>
       </c>
       <c r="E833" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>17</v>
       </c>
       <c r="E834" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>17</v>
       </c>
       <c r="E835" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>17</v>
       </c>
       <c r="E836" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>17</v>
       </c>
       <c r="E837" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>17</v>
       </c>
       <c r="E838" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>17</v>
       </c>
       <c r="E839" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="840">
@@ -14737,7 +14737,7 @@
         <v>17</v>
       </c>
       <c r="E841" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>17</v>
       </c>
       <c r="E842" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>17</v>
       </c>
       <c r="E843" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>17</v>
       </c>
       <c r="E844" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>17</v>
       </c>
       <c r="E845" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>17</v>
       </c>
       <c r="E846" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>17</v>
       </c>
       <c r="E847" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>17</v>
       </c>
       <c r="E848" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="849">
@@ -14873,7 +14873,7 @@
         <v>17</v>
       </c>
       <c r="E849" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="850">
@@ -14890,7 +14890,7 @@
         <v>17</v>
       </c>
       <c r="E850" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>17</v>
       </c>
       <c r="E851" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>17</v>
       </c>
       <c r="E852" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>17</v>
       </c>
       <c r="E853" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>18</v>
       </c>
       <c r="E854" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="855">
@@ -14975,7 +14975,7 @@
         <v>18</v>
       </c>
       <c r="E855" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="856">
@@ -14992,7 +14992,7 @@
         <v>18</v>
       </c>
       <c r="E856" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>18</v>
       </c>
       <c r="E857" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>18</v>
       </c>
       <c r="E858" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>18</v>
       </c>
       <c r="E859" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>18</v>
       </c>
       <c r="E860" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>18</v>
       </c>
       <c r="E861" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>18</v>
       </c>
       <c r="E862" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>18</v>
       </c>
       <c r="E863" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>18</v>
       </c>
       <c r="E864" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>18</v>
       </c>
       <c r="E865" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>18</v>
       </c>
       <c r="E866" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>18</v>
       </c>
       <c r="E867" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -15213,7 +15213,7 @@
         <v>18</v>
       </c>
       <c r="E869" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="870">
@@ -15230,7 +15230,7 @@
         <v>18</v>
       </c>
       <c r="E870" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="871">
@@ -15247,7 +15247,7 @@
         <v>18</v>
       </c>
       <c r="E871" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>18</v>
       </c>
       <c r="E872" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="873">
@@ -15298,7 +15298,7 @@
         <v>18</v>
       </c>
       <c r="E874" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="875">
@@ -15315,7 +15315,7 @@
         <v>18</v>
       </c>
       <c r="E875" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>18</v>
       </c>
       <c r="E876" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>18</v>
       </c>
       <c r="E877" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>18</v>
       </c>
       <c r="E878" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="879">
@@ -15400,7 +15400,7 @@
         <v>18</v>
       </c>
       <c r="E880" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="881">
@@ -15417,7 +15417,7 @@
         <v>18</v>
       </c>
       <c r="E881" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>18</v>
       </c>
       <c r="E882" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>18</v>
       </c>
       <c r="E883" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>18</v>
       </c>
       <c r="E884" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>18</v>
       </c>
       <c r="E885" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="886">
@@ -15519,7 +15519,7 @@
         <v>18</v>
       </c>
       <c r="E887" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>18</v>
       </c>
       <c r="E888" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="889">
@@ -15570,7 +15570,7 @@
         <v>18</v>
       </c>
       <c r="E890" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>18</v>
       </c>
       <c r="E891" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>18</v>
       </c>
       <c r="E892" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>18</v>
       </c>
       <c r="E893" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>18</v>
       </c>
       <c r="E894" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>18</v>
       </c>
       <c r="E895" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="896">
@@ -15672,7 +15672,7 @@
         <v>18</v>
       </c>
       <c r="E896" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="897">
@@ -15689,7 +15689,7 @@
         <v>18</v>
       </c>
       <c r="E897" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="898">
@@ -15706,7 +15706,7 @@
         <v>18</v>
       </c>
       <c r="E898" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>18</v>
       </c>
       <c r="E899" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>18</v>
       </c>
       <c r="E900" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="901">
@@ -15757,7 +15757,7 @@
         <v>18</v>
       </c>
       <c r="E901" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="902">
@@ -15774,7 +15774,7 @@
         <v>18</v>
       </c>
       <c r="E902" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>18</v>
       </c>
       <c r="E903" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>19</v>
       </c>
       <c r="E904" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>19</v>
       </c>
       <c r="E905" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>19</v>
       </c>
       <c r="E906" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>19</v>
       </c>
       <c r="E907" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>19</v>
       </c>
       <c r="E908" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>19</v>
       </c>
       <c r="E909" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>19</v>
       </c>
       <c r="E910" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>19</v>
       </c>
       <c r="E911" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>19</v>
       </c>
       <c r="E912" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>19</v>
       </c>
       <c r="E913" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>19</v>
       </c>
       <c r="E914" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>19</v>
       </c>
       <c r="E915" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>19</v>
       </c>
       <c r="E916" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>19</v>
       </c>
       <c r="E917" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>19</v>
       </c>
       <c r="E918" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>19</v>
       </c>
       <c r="E919" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>19</v>
       </c>
       <c r="E920" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>19</v>
       </c>
       <c r="E921" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>19</v>
       </c>
       <c r="E922" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>19</v>
       </c>
       <c r="E923" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>19</v>
       </c>
       <c r="E924" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>19</v>
       </c>
       <c r="E925" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>19</v>
       </c>
       <c r="E926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>19</v>
       </c>
       <c r="E927" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>19</v>
       </c>
       <c r="E928" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="929">
@@ -16233,7 +16233,7 @@
         <v>19</v>
       </c>
       <c r="E929" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="930">
@@ -16250,7 +16250,7 @@
         <v>19</v>
       </c>
       <c r="E930" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>19</v>
       </c>
       <c r="E931" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>19</v>
       </c>
       <c r="E932" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>19</v>
       </c>
       <c r="E933" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>19</v>
       </c>
       <c r="E934" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>19</v>
       </c>
       <c r="E935" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>19</v>
       </c>
       <c r="E936" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>19</v>
       </c>
       <c r="E937" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>19</v>
       </c>
       <c r="E938" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>19</v>
       </c>
       <c r="E939" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>19</v>
       </c>
       <c r="E940" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>19</v>
       </c>
       <c r="E941" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>19</v>
       </c>
       <c r="E942" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>19</v>
       </c>
       <c r="E943" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>19</v>
       </c>
       <c r="E944" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>19</v>
       </c>
       <c r="E945" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>19</v>
       </c>
       <c r="E946" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>19</v>
       </c>
       <c r="E947" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>19</v>
       </c>
       <c r="E948" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>19</v>
       </c>
       <c r="E949" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>19</v>
       </c>
       <c r="E950" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>19</v>
       </c>
       <c r="E951" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>19</v>
       </c>
       <c r="E952" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>19</v>
       </c>
       <c r="E953" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/donnees/save_clustering_cnn_kmedoids.xlsx
+++ b/src/donnees/save_clustering_cnn_kmedoids.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="E152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="E154" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="E155" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="E157" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="E158" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="E162" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="E163" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="E165" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="E166" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>3</v>
       </c>
       <c r="E167" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="E169" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="E170" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="E171" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="E178" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="E179" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="E180" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="E181" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="E185" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="E186" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="E187" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>3</v>
       </c>
       <c r="E188" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="E191" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>3</v>
       </c>
       <c r="E192" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="E193" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="E195" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>3</v>
       </c>
       <c r="E197" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="E198" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="E199" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="E200" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="E201" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="E202" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>4</v>
       </c>
       <c r="E203" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>4</v>
       </c>
       <c r="E204" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>4</v>
       </c>
       <c r="E205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>4</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>4</v>
       </c>
       <c r="E207" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>4</v>
       </c>
       <c r="E208" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="E209" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="E210" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211">
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>4</v>
       </c>
       <c r="E213" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>4</v>
       </c>
       <c r="E214" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="E215" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="E216" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="E218" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>4</v>
       </c>
       <c r="E219" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220">
@@ -4197,7 +4197,7 @@
         <v>4</v>
       </c>
       <c r="E221" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="E222" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>4</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="E224" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225">
@@ -4282,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="E226" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="E227" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>4</v>
       </c>
       <c r="E228" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="E229" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="E230" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="E231" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="E232" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>4</v>
       </c>
       <c r="E233" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>4</v>
       </c>
       <c r="E234" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="E237" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="E238" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
@@ -4520,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="E240" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -4571,7 +4571,7 @@
         <v>4</v>
       </c>
       <c r="E243" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>4</v>
       </c>
       <c r="E244" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="E245" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -4639,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="E247" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>4</v>
       </c>
       <c r="E248" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="E249" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="E250" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="E251" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="E252" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="E253" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>5</v>
       </c>
       <c r="E254" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>5</v>
       </c>
       <c r="E255" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="E256" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>5</v>
       </c>
       <c r="E257" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="E258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>5</v>
       </c>
       <c r="E259" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="E260" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>5</v>
       </c>
       <c r="E261" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>5</v>
       </c>
       <c r="E262" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="E263" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>5</v>
       </c>
       <c r="E264" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>5</v>
       </c>
       <c r="E265" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>5</v>
       </c>
       <c r="E266" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="E267" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="E268" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="E269" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="E270" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>5</v>
       </c>
       <c r="E271" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>5</v>
       </c>
       <c r="E272" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="E273" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>5</v>
       </c>
       <c r="E274" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="E275" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>5</v>
       </c>
       <c r="E276" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>5</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>5</v>
       </c>
       <c r="E278" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>5</v>
       </c>
       <c r="E279" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="E280" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>5</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="E282" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>5</v>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
@@ -5285,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="E285" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286">
@@ -5319,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="E287" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="E288" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>5</v>
       </c>
       <c r="E289" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>5</v>
       </c>
       <c r="E290" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>5</v>
       </c>
       <c r="E291" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>5</v>
       </c>
       <c r="E292" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="E293" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="E294" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>5</v>
       </c>
       <c r="E295" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>5</v>
       </c>
       <c r="E296" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>5</v>
       </c>
       <c r="E297" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>5</v>
       </c>
       <c r="E298" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>5</v>
       </c>
       <c r="E299" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>5</v>
       </c>
       <c r="E300" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="E301" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>6</v>
       </c>
       <c r="E302" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="E304" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="E305" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>6</v>
       </c>
       <c r="E306" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>6</v>
       </c>
       <c r="E307" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>6</v>
       </c>
       <c r="E308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>6</v>
       </c>
       <c r="E309" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>6</v>
       </c>
       <c r="E310" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>6</v>
       </c>
       <c r="E311" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>6</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="E313" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>6</v>
       </c>
       <c r="E314" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>6</v>
       </c>
       <c r="E315" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>6</v>
       </c>
       <c r="E316" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>6</v>
       </c>
       <c r="E317" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>6</v>
       </c>
       <c r="E318" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>6</v>
       </c>
       <c r="E319" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320">
@@ -5897,7 +5897,7 @@
         <v>6</v>
       </c>
       <c r="E321" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>6</v>
       </c>
       <c r="E322" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>6</v>
       </c>
       <c r="E323" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="E324" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="E325" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>6</v>
       </c>
       <c r="E327" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>6</v>
       </c>
       <c r="E328" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>6</v>
       </c>
       <c r="E329" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>6</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>6</v>
       </c>
       <c r="E331" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>6</v>
       </c>
       <c r="E332" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>6</v>
       </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="E334" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>6</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="E336" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>6</v>
       </c>
       <c r="E337" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>6</v>
       </c>
       <c r="E338" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>6</v>
       </c>
       <c r="E339" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340">
@@ -6237,7 +6237,7 @@
         <v>6</v>
       </c>
       <c r="E341" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>6</v>
       </c>
       <c r="E342" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>6</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>6</v>
       </c>
       <c r="E344" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>6</v>
       </c>
       <c r="E345" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>6</v>
       </c>
       <c r="E346" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>6</v>
       </c>
       <c r="E347" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>6</v>
       </c>
       <c r="E348" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>6</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>6</v>
       </c>
       <c r="E350" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>6</v>
       </c>
       <c r="E351" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354">
@@ -6475,7 +6475,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>8</v>
       </c>
       <c r="E402" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="E403" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>8</v>
       </c>
       <c r="E404" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>8</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406">
@@ -7359,7 +7359,7 @@
         <v>8</v>
       </c>
       <c r="E407" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>8</v>
       </c>
       <c r="E408" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>8</v>
       </c>
       <c r="E409" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>8</v>
       </c>
       <c r="E410" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>8</v>
       </c>
       <c r="E411" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>8</v>
       </c>
       <c r="E412" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>8</v>
       </c>
       <c r="E413" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>8</v>
       </c>
       <c r="E414" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>8</v>
       </c>
       <c r="E415" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>8</v>
       </c>
       <c r="E416" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>8</v>
       </c>
       <c r="E417" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>8</v>
       </c>
       <c r="E418" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>8</v>
       </c>
       <c r="E419" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>8</v>
       </c>
       <c r="E420" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>8</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>8</v>
       </c>
       <c r="E422" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>8</v>
       </c>
       <c r="E423" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>8</v>
       </c>
       <c r="E424" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>8</v>
       </c>
       <c r="E425" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>8</v>
       </c>
       <c r="E426" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>8</v>
       </c>
       <c r="E427" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>8</v>
       </c>
       <c r="E428" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>8</v>
       </c>
       <c r="E429" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>8</v>
       </c>
       <c r="E430" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>8</v>
       </c>
       <c r="E431" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>8</v>
       </c>
       <c r="E432" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>8</v>
       </c>
       <c r="E433" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>8</v>
       </c>
       <c r="E434" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>8</v>
       </c>
       <c r="E435" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>8</v>
       </c>
       <c r="E436" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>8</v>
       </c>
       <c r="E437" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>8</v>
       </c>
       <c r="E438" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>8</v>
       </c>
       <c r="E439" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>8</v>
       </c>
       <c r="E440" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>8</v>
       </c>
       <c r="E441" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>8</v>
       </c>
       <c r="E442" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>8</v>
       </c>
       <c r="E443" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>8</v>
       </c>
       <c r="E444" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>8</v>
       </c>
       <c r="E445" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>8</v>
       </c>
       <c r="E446" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>8</v>
       </c>
       <c r="E447" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>8</v>
       </c>
       <c r="E448" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>8</v>
       </c>
       <c r="E449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>8</v>
       </c>
       <c r="E450" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>8</v>
       </c>
       <c r="E451" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="452">
@@ -8141,7 +8141,7 @@
         <v>9</v>
       </c>
       <c r="E453" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>9</v>
       </c>
       <c r="E454" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>9</v>
       </c>
       <c r="E455" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>9</v>
       </c>
       <c r="E456" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>9</v>
       </c>
       <c r="E457" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>9</v>
       </c>
       <c r="E458" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>9</v>
       </c>
       <c r="E459" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>9</v>
       </c>
       <c r="E460" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>9</v>
       </c>
       <c r="E461" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>9</v>
       </c>
       <c r="E462" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>9</v>
       </c>
       <c r="E463" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>9</v>
       </c>
       <c r="E464" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>9</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>9</v>
       </c>
       <c r="E466" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>9</v>
       </c>
       <c r="E467" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>9</v>
       </c>
       <c r="E468" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>9</v>
       </c>
       <c r="E469" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>9</v>
       </c>
       <c r="E470" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>9</v>
       </c>
       <c r="E471" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>9</v>
       </c>
       <c r="E472" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>9</v>
       </c>
       <c r="E473" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>9</v>
       </c>
       <c r="E474" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>9</v>
       </c>
       <c r="E475" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>9</v>
       </c>
       <c r="E476" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>9</v>
       </c>
       <c r="E477" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="478">
@@ -8583,7 +8583,7 @@
         <v>9</v>
       </c>
       <c r="E479" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>9</v>
       </c>
       <c r="E480" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="481">
@@ -8634,7 +8634,7 @@
         <v>9</v>
       </c>
       <c r="E482" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>9</v>
       </c>
       <c r="E483" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>9</v>
       </c>
       <c r="E484" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>9</v>
       </c>
       <c r="E485" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>9</v>
       </c>
       <c r="E486" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>9</v>
       </c>
       <c r="E487" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="488">
@@ -8753,7 +8753,7 @@
         <v>9</v>
       </c>
       <c r="E489" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>9</v>
       </c>
       <c r="E490" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>9</v>
       </c>
       <c r="E491" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>9</v>
       </c>
       <c r="E492" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>9</v>
       </c>
       <c r="E493" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>9</v>
       </c>
       <c r="E494" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>9</v>
       </c>
       <c r="E495" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="496">
@@ -8889,7 +8889,7 @@
         <v>9</v>
       </c>
       <c r="E497" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>9</v>
       </c>
       <c r="E498" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>9</v>
       </c>
       <c r="E499" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="500">
@@ -8957,7 +8957,7 @@
         <v>9</v>
       </c>
       <c r="E501" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>10</v>
       </c>
       <c r="E502" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>10</v>
       </c>
       <c r="E503" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="504">
@@ -9025,7 +9025,7 @@
         <v>10</v>
       </c>
       <c r="E505" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>10</v>
       </c>
       <c r="E506" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>10</v>
       </c>
       <c r="E507" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>10</v>
       </c>
       <c r="E508" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>10</v>
       </c>
       <c r="E509" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="510">
@@ -9127,7 +9127,7 @@
         <v>10</v>
       </c>
       <c r="E511" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>10</v>
       </c>
       <c r="E512" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>10</v>
       </c>
       <c r="E513" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>10</v>
       </c>
       <c r="E514" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>10</v>
       </c>
       <c r="E515" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="516">
@@ -9229,7 +9229,7 @@
         <v>10</v>
       </c>
       <c r="E517" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="518">
@@ -9263,7 +9263,7 @@
         <v>10</v>
       </c>
       <c r="E519" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>10</v>
       </c>
       <c r="E520" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>10</v>
       </c>
       <c r="E521" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>10</v>
       </c>
       <c r="E522" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>10</v>
       </c>
       <c r="E523" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>10</v>
       </c>
       <c r="E524" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>10</v>
       </c>
       <c r="E525" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>10</v>
       </c>
       <c r="E526" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>10</v>
       </c>
       <c r="E527" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>10</v>
       </c>
       <c r="E528" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>10</v>
       </c>
       <c r="E529" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="530">
@@ -9467,7 +9467,7 @@
         <v>10</v>
       </c>
       <c r="E531" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>10</v>
       </c>
       <c r="E532" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>10</v>
       </c>
       <c r="E533" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>10</v>
       </c>
       <c r="E534" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>10</v>
       </c>
       <c r="E535" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>10</v>
       </c>
       <c r="E536" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>10</v>
       </c>
       <c r="E537" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>10</v>
       </c>
       <c r="E538" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>10</v>
       </c>
       <c r="E539" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>10</v>
       </c>
       <c r="E540" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>10</v>
       </c>
       <c r="E541" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>10</v>
       </c>
       <c r="E542" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>10</v>
       </c>
       <c r="E543" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>10</v>
       </c>
       <c r="E544" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>10</v>
       </c>
       <c r="E545" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>10</v>
       </c>
       <c r="E546" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>10</v>
       </c>
       <c r="E547" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>10</v>
       </c>
       <c r="E548" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>10</v>
       </c>
       <c r="E549" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="550">
@@ -9807,7 +9807,7 @@
         <v>10</v>
       </c>
       <c r="E551" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>11</v>
       </c>
       <c r="E552" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>11</v>
       </c>
       <c r="E553" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>11</v>
       </c>
       <c r="E554" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>11</v>
       </c>
       <c r="E555" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>11</v>
       </c>
       <c r="E556" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>11</v>
       </c>
       <c r="E557" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>11</v>
       </c>
       <c r="E558" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>11</v>
       </c>
       <c r="E559" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>11</v>
       </c>
       <c r="E560" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>11</v>
       </c>
       <c r="E561" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>11</v>
       </c>
       <c r="E562" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>11</v>
       </c>
       <c r="E563" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>11</v>
       </c>
       <c r="E564" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>11</v>
       </c>
       <c r="E565" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>11</v>
       </c>
       <c r="E566" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>11</v>
       </c>
       <c r="E567" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>11</v>
       </c>
       <c r="E568" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>11</v>
       </c>
       <c r="E569" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>11</v>
       </c>
       <c r="E570" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>11</v>
       </c>
       <c r="E571" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>11</v>
       </c>
       <c r="E572" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>11</v>
       </c>
       <c r="E573" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>11</v>
       </c>
       <c r="E574" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>11</v>
       </c>
       <c r="E575" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>11</v>
       </c>
       <c r="E576" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>11</v>
       </c>
       <c r="E577" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>11</v>
       </c>
       <c r="E578" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>11</v>
       </c>
       <c r="E579" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>11</v>
       </c>
       <c r="E580" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>11</v>
       </c>
       <c r="E581" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>11</v>
       </c>
       <c r="E582" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>11</v>
       </c>
       <c r="E583" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>11</v>
       </c>
       <c r="E584" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>11</v>
       </c>
       <c r="E585" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>11</v>
       </c>
       <c r="E586" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>11</v>
       </c>
       <c r="E587" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>11</v>
       </c>
       <c r="E588" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>11</v>
       </c>
       <c r="E589" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>11</v>
       </c>
       <c r="E590" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>11</v>
       </c>
       <c r="E591" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>11</v>
       </c>
       <c r="E592" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>11</v>
       </c>
       <c r="E593" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>11</v>
       </c>
       <c r="E594" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>11</v>
       </c>
       <c r="E595" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>11</v>
       </c>
       <c r="E596" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>11</v>
       </c>
       <c r="E597" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>11</v>
       </c>
       <c r="E598" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>11</v>
       </c>
       <c r="E599" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>12</v>
       </c>
       <c r="E600" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>12</v>
       </c>
       <c r="E601" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="602">
@@ -10674,7 +10674,7 @@
         <v>12</v>
       </c>
       <c r="E602" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="603">
@@ -10691,7 +10691,7 @@
         <v>12</v>
       </c>
       <c r="E603" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="604">
@@ -10708,7 +10708,7 @@
         <v>12</v>
       </c>
       <c r="E604" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="605">
@@ -10725,7 +10725,7 @@
         <v>12</v>
       </c>
       <c r="E605" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="606">
@@ -10742,7 +10742,7 @@
         <v>12</v>
       </c>
       <c r="E606" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="607">
@@ -10759,7 +10759,7 @@
         <v>12</v>
       </c>
       <c r="E607" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="608">
@@ -10776,7 +10776,7 @@
         <v>12</v>
       </c>
       <c r="E608" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="609">
@@ -10793,7 +10793,7 @@
         <v>12</v>
       </c>
       <c r="E609" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610">
@@ -10827,7 +10827,7 @@
         <v>12</v>
       </c>
       <c r="E611" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="612">
@@ -10878,7 +10878,7 @@
         <v>12</v>
       </c>
       <c r="E614" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="615">
@@ -10895,7 +10895,7 @@
         <v>12</v>
       </c>
       <c r="E615" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616">
@@ -10912,7 +10912,7 @@
         <v>12</v>
       </c>
       <c r="E616" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="617">
@@ -10929,7 +10929,7 @@
         <v>12</v>
       </c>
       <c r="E617" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="618">
@@ -10963,7 +10963,7 @@
         <v>12</v>
       </c>
       <c r="E619" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="620">
@@ -10980,7 +10980,7 @@
         <v>12</v>
       </c>
       <c r="E620" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="621">
@@ -10997,7 +10997,7 @@
         <v>12</v>
       </c>
       <c r="E621" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="622">
@@ -11014,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="E622" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="623">
@@ -11031,7 +11031,7 @@
         <v>12</v>
       </c>
       <c r="E623" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="624">
@@ -11048,7 +11048,7 @@
         <v>12</v>
       </c>
       <c r="E624" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="625">
@@ -11065,7 +11065,7 @@
         <v>12</v>
       </c>
       <c r="E625" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="626">
@@ -11082,7 +11082,7 @@
         <v>12</v>
       </c>
       <c r="E626" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="627">
@@ -11099,7 +11099,7 @@
         <v>12</v>
       </c>
       <c r="E627" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="628">
@@ -11133,7 +11133,7 @@
         <v>12</v>
       </c>
       <c r="E629" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="630">
@@ -11150,7 +11150,7 @@
         <v>12</v>
       </c>
       <c r="E630" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="631">
@@ -11167,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="E631" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="632">
@@ -11201,7 +11201,7 @@
         <v>12</v>
       </c>
       <c r="E633" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="634">
@@ -11218,7 +11218,7 @@
         <v>12</v>
       </c>
       <c r="E634" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="635">
@@ -11235,7 +11235,7 @@
         <v>12</v>
       </c>
       <c r="E635" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="636">
@@ -11252,7 +11252,7 @@
         <v>12</v>
       </c>
       <c r="E636" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="637">
@@ -11269,7 +11269,7 @@
         <v>12</v>
       </c>
       <c r="E637" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="638">
@@ -11286,7 +11286,7 @@
         <v>12</v>
       </c>
       <c r="E638" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="639">
@@ -11303,7 +11303,7 @@
         <v>12</v>
       </c>
       <c r="E639" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="640">
@@ -11320,7 +11320,7 @@
         <v>12</v>
       </c>
       <c r="E640" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="641">
@@ -11337,7 +11337,7 @@
         <v>12</v>
       </c>
       <c r="E641" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="642">
@@ -11371,7 +11371,7 @@
         <v>12</v>
       </c>
       <c r="E643" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="644">
@@ -11388,7 +11388,7 @@
         <v>12</v>
       </c>
       <c r="E644" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="645">
@@ -11405,7 +11405,7 @@
         <v>12</v>
       </c>
       <c r="E645" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="646">
@@ -11439,7 +11439,7 @@
         <v>12</v>
       </c>
       <c r="E647" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="648">
@@ -11473,7 +11473,7 @@
         <v>12</v>
       </c>
       <c r="E649" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="650">
@@ -11490,7 +11490,7 @@
         <v>13</v>
       </c>
       <c r="E650" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="651">
@@ -11507,7 +11507,7 @@
         <v>13</v>
       </c>
       <c r="E651" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="652">
@@ -11524,7 +11524,7 @@
         <v>13</v>
       </c>
       <c r="E652" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="653">
@@ -11541,7 +11541,7 @@
         <v>13</v>
       </c>
       <c r="E653" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="654">
@@ -11558,7 +11558,7 @@
         <v>13</v>
       </c>
       <c r="E654" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="655">
@@ -11575,7 +11575,7 @@
         <v>13</v>
       </c>
       <c r="E655" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="656">
@@ -11592,7 +11592,7 @@
         <v>13</v>
       </c>
       <c r="E656" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="657">
@@ -11609,7 +11609,7 @@
         <v>13</v>
       </c>
       <c r="E657" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="658">
@@ -11626,7 +11626,7 @@
         <v>13</v>
       </c>
       <c r="E658" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="659">
@@ -11660,7 +11660,7 @@
         <v>13</v>
       </c>
       <c r="E660" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="661">
@@ -11677,7 +11677,7 @@
         <v>13</v>
       </c>
       <c r="E661" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="662">
@@ -11694,7 +11694,7 @@
         <v>13</v>
       </c>
       <c r="E662" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="663">
@@ -11711,7 +11711,7 @@
         <v>13</v>
       </c>
       <c r="E663" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="664">
@@ -11728,7 +11728,7 @@
         <v>13</v>
       </c>
       <c r="E664" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="665">
@@ -11745,7 +11745,7 @@
         <v>13</v>
       </c>
       <c r="E665" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="666">
@@ -11762,7 +11762,7 @@
         <v>13</v>
       </c>
       <c r="E666" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="667">
@@ -11779,7 +11779,7 @@
         <v>13</v>
       </c>
       <c r="E667" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="668">
@@ -11796,7 +11796,7 @@
         <v>13</v>
       </c>
       <c r="E668" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="669">
@@ -11813,7 +11813,7 @@
         <v>13</v>
       </c>
       <c r="E669" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="670">
@@ -11830,7 +11830,7 @@
         <v>13</v>
       </c>
       <c r="E670" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="671">
@@ -11847,7 +11847,7 @@
         <v>13</v>
       </c>
       <c r="E671" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="672">
@@ -11864,7 +11864,7 @@
         <v>13</v>
       </c>
       <c r="E672" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="673">
@@ -11881,7 +11881,7 @@
         <v>13</v>
       </c>
       <c r="E673" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="674">
@@ -11898,7 +11898,7 @@
         <v>13</v>
       </c>
       <c r="E674" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="675">
@@ -11915,7 +11915,7 @@
         <v>13</v>
       </c>
       <c r="E675" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="676">
@@ -11932,7 +11932,7 @@
         <v>13</v>
       </c>
       <c r="E676" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="677">
@@ -11949,7 +11949,7 @@
         <v>13</v>
       </c>
       <c r="E677" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="678">
@@ -11966,7 +11966,7 @@
         <v>13</v>
       </c>
       <c r="E678" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="679">
@@ -12000,7 +12000,7 @@
         <v>13</v>
       </c>
       <c r="E680" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="681">
@@ -12017,7 +12017,7 @@
         <v>13</v>
       </c>
       <c r="E681" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="682">
@@ -12034,7 +12034,7 @@
         <v>13</v>
       </c>
       <c r="E682" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="683">
@@ -12051,7 +12051,7 @@
         <v>13</v>
       </c>
       <c r="E683" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684">
@@ -12068,7 +12068,7 @@
         <v>13</v>
       </c>
       <c r="E684" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="685">
@@ -12102,7 +12102,7 @@
         <v>13</v>
       </c>
       <c r="E686" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="687">
@@ -12119,7 +12119,7 @@
         <v>13</v>
       </c>
       <c r="E687" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="688">
@@ -12136,7 +12136,7 @@
         <v>13</v>
       </c>
       <c r="E688" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="689">
@@ -12153,7 +12153,7 @@
         <v>13</v>
       </c>
       <c r="E689" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="690">
@@ -12170,7 +12170,7 @@
         <v>14</v>
       </c>
       <c r="E690" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="691">
@@ -12187,7 +12187,7 @@
         <v>14</v>
       </c>
       <c r="E691" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="692">
@@ -12204,7 +12204,7 @@
         <v>14</v>
       </c>
       <c r="E692" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="693">
@@ -12221,7 +12221,7 @@
         <v>14</v>
       </c>
       <c r="E693" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="694">
@@ -12238,7 +12238,7 @@
         <v>14</v>
       </c>
       <c r="E694" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="695">
@@ -12255,7 +12255,7 @@
         <v>14</v>
       </c>
       <c r="E695" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="696">
@@ -12272,7 +12272,7 @@
         <v>14</v>
       </c>
       <c r="E696" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="697">
@@ -12289,7 +12289,7 @@
         <v>14</v>
       </c>
       <c r="E697" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="698">
@@ -12306,7 +12306,7 @@
         <v>14</v>
       </c>
       <c r="E698" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="699">
@@ -12323,7 +12323,7 @@
         <v>14</v>
       </c>
       <c r="E699" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="700">
@@ -12340,7 +12340,7 @@
         <v>14</v>
       </c>
       <c r="E700" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="701">
@@ -12357,7 +12357,7 @@
         <v>14</v>
       </c>
       <c r="E701" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="702">
@@ -12374,7 +12374,7 @@
         <v>14</v>
       </c>
       <c r="E702" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="703">
@@ -12391,7 +12391,7 @@
         <v>14</v>
       </c>
       <c r="E703" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="704">
@@ -12408,7 +12408,7 @@
         <v>14</v>
       </c>
       <c r="E704" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="705">
@@ -12425,7 +12425,7 @@
         <v>14</v>
       </c>
       <c r="E705" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="706">
@@ -12442,7 +12442,7 @@
         <v>14</v>
       </c>
       <c r="E706" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="707">
@@ -12459,7 +12459,7 @@
         <v>14</v>
       </c>
       <c r="E707" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="708">
@@ -12476,7 +12476,7 @@
         <v>14</v>
       </c>
       <c r="E708" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="709">
@@ -12493,7 +12493,7 @@
         <v>14</v>
       </c>
       <c r="E709" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="710">
@@ -12510,7 +12510,7 @@
         <v>14</v>
       </c>
       <c r="E710" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="711">
@@ -12527,7 +12527,7 @@
         <v>14</v>
       </c>
       <c r="E711" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="712">
@@ -12544,7 +12544,7 @@
         <v>14</v>
       </c>
       <c r="E712" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="713">
@@ -12561,7 +12561,7 @@
         <v>14</v>
       </c>
       <c r="E713" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="714">
@@ -12578,7 +12578,7 @@
         <v>14</v>
       </c>
       <c r="E714" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="715">
@@ -12595,7 +12595,7 @@
         <v>14</v>
       </c>
       <c r="E715" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="716">
@@ -12612,7 +12612,7 @@
         <v>14</v>
       </c>
       <c r="E716" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="717">
@@ -12629,7 +12629,7 @@
         <v>14</v>
       </c>
       <c r="E717" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="718">
@@ -12646,7 +12646,7 @@
         <v>14</v>
       </c>
       <c r="E718" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="719">
@@ -12663,7 +12663,7 @@
         <v>14</v>
       </c>
       <c r="E719" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="720">
@@ -12680,7 +12680,7 @@
         <v>14</v>
       </c>
       <c r="E720" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="721">
@@ -12697,7 +12697,7 @@
         <v>14</v>
       </c>
       <c r="E721" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="722">
@@ -12714,7 +12714,7 @@
         <v>14</v>
       </c>
       <c r="E722" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="723">
@@ -12731,7 +12731,7 @@
         <v>14</v>
       </c>
       <c r="E723" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="724">
@@ -12748,7 +12748,7 @@
         <v>14</v>
       </c>
       <c r="E724" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="725">
@@ -12765,7 +12765,7 @@
         <v>14</v>
       </c>
       <c r="E725" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="726">
@@ -12782,7 +12782,7 @@
         <v>14</v>
       </c>
       <c r="E726" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="727">
@@ -12799,7 +12799,7 @@
         <v>14</v>
       </c>
       <c r="E727" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="728">
@@ -12816,7 +12816,7 @@
         <v>14</v>
       </c>
       <c r="E728" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="729">
@@ -12833,7 +12833,7 @@
         <v>14</v>
       </c>
       <c r="E729" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="730">
@@ -12850,7 +12850,7 @@
         <v>15</v>
       </c>
       <c r="E730" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="731">
@@ -12867,7 +12867,7 @@
         <v>15</v>
       </c>
       <c r="E731" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732">
@@ -12884,7 +12884,7 @@
         <v>15</v>
       </c>
       <c r="E732" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="733">
@@ -12901,7 +12901,7 @@
         <v>15</v>
       </c>
       <c r="E733" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="734">
@@ -12918,7 +12918,7 @@
         <v>15</v>
       </c>
       <c r="E734" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="735">
@@ -12935,7 +12935,7 @@
         <v>15</v>
       </c>
       <c r="E735" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="736">
@@ -12952,7 +12952,7 @@
         <v>15</v>
       </c>
       <c r="E736" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="737">
@@ -12969,7 +12969,7 @@
         <v>15</v>
       </c>
       <c r="E737" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="738">
@@ -12986,7 +12986,7 @@
         <v>15</v>
       </c>
       <c r="E738" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="739">
@@ -13003,7 +13003,7 @@
         <v>15</v>
       </c>
       <c r="E739" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="740">
@@ -13037,7 +13037,7 @@
         <v>15</v>
       </c>
       <c r="E741" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="742">
@@ -13054,7 +13054,7 @@
         <v>15</v>
       </c>
       <c r="E742" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="743">
@@ -13071,7 +13071,7 @@
         <v>15</v>
       </c>
       <c r="E743" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="744">
@@ -13088,7 +13088,7 @@
         <v>15</v>
       </c>
       <c r="E744" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="745">
@@ -13105,7 +13105,7 @@
         <v>15</v>
       </c>
       <c r="E745" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="746">
@@ -13122,7 +13122,7 @@
         <v>15</v>
       </c>
       <c r="E746" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="747">
@@ -13139,7 +13139,7 @@
         <v>15</v>
       </c>
       <c r="E747" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="748">
@@ -13156,7 +13156,7 @@
         <v>15</v>
       </c>
       <c r="E748" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="749">
@@ -13173,7 +13173,7 @@
         <v>15</v>
       </c>
       <c r="E749" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="750">
@@ -13190,7 +13190,7 @@
         <v>15</v>
       </c>
       <c r="E750" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="751">
@@ -13207,7 +13207,7 @@
         <v>15</v>
       </c>
       <c r="E751" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="752">
@@ -13224,7 +13224,7 @@
         <v>15</v>
       </c>
       <c r="E752" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="753">
@@ -13241,7 +13241,7 @@
         <v>15</v>
       </c>
       <c r="E753" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="754">
@@ -13258,7 +13258,7 @@
         <v>15</v>
       </c>
       <c r="E754" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="755">
@@ -13275,7 +13275,7 @@
         <v>16</v>
       </c>
       <c r="E755" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="756">
@@ -13292,7 +13292,7 @@
         <v>16</v>
       </c>
       <c r="E756" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="757">
@@ -13326,7 +13326,7 @@
         <v>16</v>
       </c>
       <c r="E758" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="759">
@@ -13343,7 +13343,7 @@
         <v>16</v>
       </c>
       <c r="E759" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="760">
@@ -13360,7 +13360,7 @@
         <v>16</v>
       </c>
       <c r="E760" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="761">
@@ -13394,7 +13394,7 @@
         <v>16</v>
       </c>
       <c r="E762" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="763">
@@ -13411,7 +13411,7 @@
         <v>16</v>
       </c>
       <c r="E763" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="764">
@@ -13428,7 +13428,7 @@
         <v>16</v>
       </c>
       <c r="E764" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765">
@@ -13445,7 +13445,7 @@
         <v>16</v>
       </c>
       <c r="E765" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="766">
@@ -13462,7 +13462,7 @@
         <v>16</v>
       </c>
       <c r="E766" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="767">
@@ -13496,7 +13496,7 @@
         <v>16</v>
       </c>
       <c r="E768" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="769">
@@ -13513,7 +13513,7 @@
         <v>16</v>
       </c>
       <c r="E769" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="770">
@@ -13547,7 +13547,7 @@
         <v>16</v>
       </c>
       <c r="E771" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="772">
@@ -13564,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="E772" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="773">
@@ -13581,7 +13581,7 @@
         <v>16</v>
       </c>
       <c r="E773" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="774">
@@ -13598,7 +13598,7 @@
         <v>16</v>
       </c>
       <c r="E774" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="775">
@@ -13615,7 +13615,7 @@
         <v>16</v>
       </c>
       <c r="E775" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="776">
@@ -13632,7 +13632,7 @@
         <v>16</v>
       </c>
       <c r="E776" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="777">
@@ -13649,7 +13649,7 @@
         <v>16</v>
       </c>
       <c r="E777" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="778">
@@ -13666,7 +13666,7 @@
         <v>16</v>
       </c>
       <c r="E778" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="779">
@@ -13683,7 +13683,7 @@
         <v>16</v>
       </c>
       <c r="E779" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="780">
@@ -13700,7 +13700,7 @@
         <v>16</v>
       </c>
       <c r="E780" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="781">
@@ -13717,7 +13717,7 @@
         <v>16</v>
       </c>
       <c r="E781" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="782">
@@ -13734,7 +13734,7 @@
         <v>16</v>
       </c>
       <c r="E782" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="783">
@@ -13751,7 +13751,7 @@
         <v>16</v>
       </c>
       <c r="E783" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="784">
@@ -13768,7 +13768,7 @@
         <v>16</v>
       </c>
       <c r="E784" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785">
@@ -13785,7 +13785,7 @@
         <v>16</v>
       </c>
       <c r="E785" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="786">
@@ -13802,7 +13802,7 @@
         <v>16</v>
       </c>
       <c r="E786" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="787">
@@ -13819,7 +13819,7 @@
         <v>16</v>
       </c>
       <c r="E787" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="788">
@@ -13836,7 +13836,7 @@
         <v>16</v>
       </c>
       <c r="E788" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="789">
@@ -13887,7 +13887,7 @@
         <v>16</v>
       </c>
       <c r="E791" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="792">
@@ -13904,7 +13904,7 @@
         <v>16</v>
       </c>
       <c r="E792" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="793">
@@ -13921,7 +13921,7 @@
         <v>16</v>
       </c>
       <c r="E793" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="794">
@@ -13938,7 +13938,7 @@
         <v>16</v>
       </c>
       <c r="E794" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="795">
@@ -13955,7 +13955,7 @@
         <v>16</v>
       </c>
       <c r="E795" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="796">
@@ -13972,7 +13972,7 @@
         <v>16</v>
       </c>
       <c r="E796" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="797">
@@ -13989,7 +13989,7 @@
         <v>16</v>
       </c>
       <c r="E797" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="798">
@@ -14023,7 +14023,7 @@
         <v>16</v>
       </c>
       <c r="E799" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="800">
@@ -14040,7 +14040,7 @@
         <v>16</v>
       </c>
       <c r="E800" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="801">
@@ -14057,7 +14057,7 @@
         <v>16</v>
       </c>
       <c r="E801" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="802">
@@ -14074,7 +14074,7 @@
         <v>16</v>
       </c>
       <c r="E802" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="803">
@@ -14091,7 +14091,7 @@
         <v>16</v>
       </c>
       <c r="E803" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="804">
@@ -14108,7 +14108,7 @@
         <v>16</v>
       </c>
       <c r="E804" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="805">
@@ -14125,7 +14125,7 @@
         <v>17</v>
       </c>
       <c r="E805" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="806">
@@ -14159,7 +14159,7 @@
         <v>17</v>
       </c>
       <c r="E807" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="808">
@@ -14176,7 +14176,7 @@
         <v>17</v>
       </c>
       <c r="E808" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="809">
@@ -14193,7 +14193,7 @@
         <v>17</v>
       </c>
       <c r="E809" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="810">
@@ -14210,7 +14210,7 @@
         <v>17</v>
       </c>
       <c r="E810" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="811">
@@ -14227,7 +14227,7 @@
         <v>17</v>
       </c>
       <c r="E811" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="812">
@@ -14244,7 +14244,7 @@
         <v>17</v>
       </c>
       <c r="E812" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="813">
@@ -14261,7 +14261,7 @@
         <v>17</v>
       </c>
       <c r="E813" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="814">
@@ -14278,7 +14278,7 @@
         <v>17</v>
       </c>
       <c r="E814" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="815">
@@ -14295,7 +14295,7 @@
         <v>17</v>
       </c>
       <c r="E815" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="816">
@@ -14312,7 +14312,7 @@
         <v>17</v>
       </c>
       <c r="E816" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="817">
@@ -14329,7 +14329,7 @@
         <v>17</v>
       </c>
       <c r="E817" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="818">
@@ -14346,7 +14346,7 @@
         <v>17</v>
       </c>
       <c r="E818" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="819">
@@ -14363,7 +14363,7 @@
         <v>17</v>
       </c>
       <c r="E819" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="820">
@@ -14380,7 +14380,7 @@
         <v>17</v>
       </c>
       <c r="E820" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="821">
@@ -14397,7 +14397,7 @@
         <v>17</v>
       </c>
       <c r="E821" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="822">
@@ -14414,7 +14414,7 @@
         <v>17</v>
       </c>
       <c r="E822" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="823">
@@ -14431,7 +14431,7 @@
         <v>17</v>
       </c>
       <c r="E823" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="824">
@@ -14448,7 +14448,7 @@
         <v>17</v>
       </c>
       <c r="E824" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="825">
@@ -14465,7 +14465,7 @@
         <v>17</v>
       </c>
       <c r="E825" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="826">
@@ -14482,7 +14482,7 @@
         <v>17</v>
       </c>
       <c r="E826" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="827">
@@ -14499,7 +14499,7 @@
         <v>17</v>
       </c>
       <c r="E827" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -14516,7 +14516,7 @@
         <v>17</v>
       </c>
       <c r="E828" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="829">
@@ -14533,7 +14533,7 @@
         <v>17</v>
       </c>
       <c r="E829" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="830">
@@ -14550,7 +14550,7 @@
         <v>17</v>
       </c>
       <c r="E830" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="831">
@@ -14567,7 +14567,7 @@
         <v>17</v>
       </c>
       <c r="E831" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="832">
@@ -14584,7 +14584,7 @@
         <v>17</v>
       </c>
       <c r="E832" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="833">
@@ -14601,7 +14601,7 @@
         <v>17</v>
       </c>
       <c r="E833" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="834">
@@ -14618,7 +14618,7 @@
         <v>17</v>
       </c>
       <c r="E834" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="835">
@@ -14635,7 +14635,7 @@
         <v>17</v>
       </c>
       <c r="E835" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="836">
@@ -14652,7 +14652,7 @@
         <v>17</v>
       </c>
       <c r="E836" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="837">
@@ -14669,7 +14669,7 @@
         <v>17</v>
       </c>
       <c r="E837" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="838">
@@ -14686,7 +14686,7 @@
         <v>17</v>
       </c>
       <c r="E838" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="839">
@@ -14703,7 +14703,7 @@
         <v>17</v>
       </c>
       <c r="E839" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="840">
@@ -14720,7 +14720,7 @@
         <v>17</v>
       </c>
       <c r="E840" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="841">
@@ -14737,7 +14737,7 @@
         <v>17</v>
       </c>
       <c r="E841" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="842">
@@ -14754,7 +14754,7 @@
         <v>17</v>
       </c>
       <c r="E842" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="843">
@@ -14771,7 +14771,7 @@
         <v>17</v>
       </c>
       <c r="E843" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="844">
@@ -14788,7 +14788,7 @@
         <v>17</v>
       </c>
       <c r="E844" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="845">
@@ -14805,7 +14805,7 @@
         <v>17</v>
       </c>
       <c r="E845" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="846">
@@ -14822,7 +14822,7 @@
         <v>17</v>
       </c>
       <c r="E846" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="847">
@@ -14839,7 +14839,7 @@
         <v>17</v>
       </c>
       <c r="E847" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="848">
@@ -14856,7 +14856,7 @@
         <v>17</v>
       </c>
       <c r="E848" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="849">
@@ -14890,7 +14890,7 @@
         <v>17</v>
       </c>
       <c r="E850" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="851">
@@ -14907,7 +14907,7 @@
         <v>17</v>
       </c>
       <c r="E851" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="852">
@@ -14924,7 +14924,7 @@
         <v>17</v>
       </c>
       <c r="E852" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="853">
@@ -14941,7 +14941,7 @@
         <v>17</v>
       </c>
       <c r="E853" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="854">
@@ -14958,7 +14958,7 @@
         <v>18</v>
       </c>
       <c r="E854" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="855">
@@ -14992,7 +14992,7 @@
         <v>18</v>
       </c>
       <c r="E856" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="857">
@@ -15009,7 +15009,7 @@
         <v>18</v>
       </c>
       <c r="E857" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="858">
@@ -15026,7 +15026,7 @@
         <v>18</v>
       </c>
       <c r="E858" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="859">
@@ -15043,7 +15043,7 @@
         <v>18</v>
       </c>
       <c r="E859" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="860">
@@ -15060,7 +15060,7 @@
         <v>18</v>
       </c>
       <c r="E860" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="861">
@@ -15077,7 +15077,7 @@
         <v>18</v>
       </c>
       <c r="E861" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="862">
@@ -15094,7 +15094,7 @@
         <v>18</v>
       </c>
       <c r="E862" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="863">
@@ -15111,7 +15111,7 @@
         <v>18</v>
       </c>
       <c r="E863" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="864">
@@ -15128,7 +15128,7 @@
         <v>18</v>
       </c>
       <c r="E864" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="865">
@@ -15145,7 +15145,7 @@
         <v>18</v>
       </c>
       <c r="E865" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="866">
@@ -15162,7 +15162,7 @@
         <v>18</v>
       </c>
       <c r="E866" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="867">
@@ -15179,7 +15179,7 @@
         <v>18</v>
       </c>
       <c r="E867" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="868">
@@ -15196,7 +15196,7 @@
         <v>18</v>
       </c>
       <c r="E868" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="869">
@@ -15213,7 +15213,7 @@
         <v>18</v>
       </c>
       <c r="E869" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="870">
@@ -15247,7 +15247,7 @@
         <v>18</v>
       </c>
       <c r="E871" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="872">
@@ -15264,7 +15264,7 @@
         <v>18</v>
       </c>
       <c r="E872" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="873">
@@ -15281,7 +15281,7 @@
         <v>18</v>
       </c>
       <c r="E873" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="874">
@@ -15315,7 +15315,7 @@
         <v>18</v>
       </c>
       <c r="E875" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="876">
@@ -15332,7 +15332,7 @@
         <v>18</v>
       </c>
       <c r="E876" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="877">
@@ -15349,7 +15349,7 @@
         <v>18</v>
       </c>
       <c r="E877" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="878">
@@ -15366,7 +15366,7 @@
         <v>18</v>
       </c>
       <c r="E878" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="879">
@@ -15383,7 +15383,7 @@
         <v>18</v>
       </c>
       <c r="E879" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="880">
@@ -15417,7 +15417,7 @@
         <v>18</v>
       </c>
       <c r="E881" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="882">
@@ -15434,7 +15434,7 @@
         <v>18</v>
       </c>
       <c r="E882" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="883">
@@ -15451,7 +15451,7 @@
         <v>18</v>
       </c>
       <c r="E883" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="884">
@@ -15468,7 +15468,7 @@
         <v>18</v>
       </c>
       <c r="E884" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="885">
@@ -15485,7 +15485,7 @@
         <v>18</v>
       </c>
       <c r="E885" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="886">
@@ -15502,7 +15502,7 @@
         <v>18</v>
       </c>
       <c r="E886" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="887">
@@ -15519,7 +15519,7 @@
         <v>18</v>
       </c>
       <c r="E887" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="888">
@@ -15536,7 +15536,7 @@
         <v>18</v>
       </c>
       <c r="E888" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="889">
@@ -15553,7 +15553,7 @@
         <v>18</v>
       </c>
       <c r="E889" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="890">
@@ -15570,7 +15570,7 @@
         <v>18</v>
       </c>
       <c r="E890" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="891">
@@ -15587,7 +15587,7 @@
         <v>18</v>
       </c>
       <c r="E891" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="892">
@@ -15604,7 +15604,7 @@
         <v>18</v>
       </c>
       <c r="E892" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="893">
@@ -15621,7 +15621,7 @@
         <v>18</v>
       </c>
       <c r="E893" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="894">
@@ -15638,7 +15638,7 @@
         <v>18</v>
       </c>
       <c r="E894" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="895">
@@ -15655,7 +15655,7 @@
         <v>18</v>
       </c>
       <c r="E895" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="896">
@@ -15706,7 +15706,7 @@
         <v>18</v>
       </c>
       <c r="E898" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="899">
@@ -15723,7 +15723,7 @@
         <v>18</v>
       </c>
       <c r="E899" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="900">
@@ -15740,7 +15740,7 @@
         <v>18</v>
       </c>
       <c r="E900" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="901">
@@ -15774,7 +15774,7 @@
         <v>18</v>
       </c>
       <c r="E902" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="903">
@@ -15791,7 +15791,7 @@
         <v>18</v>
       </c>
       <c r="E903" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="904">
@@ -15808,7 +15808,7 @@
         <v>19</v>
       </c>
       <c r="E904" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="905">
@@ -15825,7 +15825,7 @@
         <v>19</v>
       </c>
       <c r="E905" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="906">
@@ -15842,7 +15842,7 @@
         <v>19</v>
       </c>
       <c r="E906" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="907">
@@ -15859,7 +15859,7 @@
         <v>19</v>
       </c>
       <c r="E907" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="908">
@@ -15876,7 +15876,7 @@
         <v>19</v>
       </c>
       <c r="E908" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="909">
@@ -15893,7 +15893,7 @@
         <v>19</v>
       </c>
       <c r="E909" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="910">
@@ -15910,7 +15910,7 @@
         <v>19</v>
       </c>
       <c r="E910" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="911">
@@ -15927,7 +15927,7 @@
         <v>19</v>
       </c>
       <c r="E911" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="912">
@@ -15944,7 +15944,7 @@
         <v>19</v>
       </c>
       <c r="E912" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="913">
@@ -15961,7 +15961,7 @@
         <v>19</v>
       </c>
       <c r="E913" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="914">
@@ -15978,7 +15978,7 @@
         <v>19</v>
       </c>
       <c r="E914" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="915">
@@ -15995,7 +15995,7 @@
         <v>19</v>
       </c>
       <c r="E915" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="916">
@@ -16012,7 +16012,7 @@
         <v>19</v>
       </c>
       <c r="E916" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="917">
@@ -16029,7 +16029,7 @@
         <v>19</v>
       </c>
       <c r="E917" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="918">
@@ -16046,7 +16046,7 @@
         <v>19</v>
       </c>
       <c r="E918" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="919">
@@ -16063,7 +16063,7 @@
         <v>19</v>
       </c>
       <c r="E919" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="920">
@@ -16080,7 +16080,7 @@
         <v>19</v>
       </c>
       <c r="E920" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="921">
@@ -16097,7 +16097,7 @@
         <v>19</v>
       </c>
       <c r="E921" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="922">
@@ -16114,7 +16114,7 @@
         <v>19</v>
       </c>
       <c r="E922" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="923">
@@ -16131,7 +16131,7 @@
         <v>19</v>
       </c>
       <c r="E923" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="924">
@@ -16148,7 +16148,7 @@
         <v>19</v>
       </c>
       <c r="E924" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="925">
@@ -16165,7 +16165,7 @@
         <v>19</v>
       </c>
       <c r="E925" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="926">
@@ -16182,7 +16182,7 @@
         <v>19</v>
       </c>
       <c r="E926" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="927">
@@ -16199,7 +16199,7 @@
         <v>19</v>
       </c>
       <c r="E927" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="928">
@@ -16216,7 +16216,7 @@
         <v>19</v>
       </c>
       <c r="E928" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="929">
@@ -16250,7 +16250,7 @@
         <v>19</v>
       </c>
       <c r="E930" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="931">
@@ -16267,7 +16267,7 @@
         <v>19</v>
       </c>
       <c r="E931" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="932">
@@ -16284,7 +16284,7 @@
         <v>19</v>
       </c>
       <c r="E932" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="933">
@@ -16301,7 +16301,7 @@
         <v>19</v>
       </c>
       <c r="E933" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="934">
@@ -16318,7 +16318,7 @@
         <v>19</v>
       </c>
       <c r="E934" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="935">
@@ -16335,7 +16335,7 @@
         <v>19</v>
       </c>
       <c r="E935" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="936">
@@ -16352,7 +16352,7 @@
         <v>19</v>
       </c>
       <c r="E936" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="937">
@@ -16369,7 +16369,7 @@
         <v>19</v>
       </c>
       <c r="E937" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="938">
@@ -16386,7 +16386,7 @@
         <v>19</v>
       </c>
       <c r="E938" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="939">
@@ -16403,7 +16403,7 @@
         <v>19</v>
       </c>
       <c r="E939" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="940">
@@ -16420,7 +16420,7 @@
         <v>19</v>
       </c>
       <c r="E940" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="941">
@@ -16437,7 +16437,7 @@
         <v>19</v>
       </c>
       <c r="E941" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="942">
@@ -16454,7 +16454,7 @@
         <v>19</v>
       </c>
       <c r="E942" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="943">
@@ -16471,7 +16471,7 @@
         <v>19</v>
       </c>
       <c r="E943" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="944">
@@ -16488,7 +16488,7 @@
         <v>19</v>
       </c>
       <c r="E944" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="945">
@@ -16505,7 +16505,7 @@
         <v>19</v>
       </c>
       <c r="E945" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="946">
@@ -16522,7 +16522,7 @@
         <v>19</v>
       </c>
       <c r="E946" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="947">
@@ -16539,7 +16539,7 @@
         <v>19</v>
       </c>
       <c r="E947" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="948">
@@ -16556,7 +16556,7 @@
         <v>19</v>
       </c>
       <c r="E948" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="949">
@@ -16573,7 +16573,7 @@
         <v>19</v>
       </c>
       <c r="E949" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="950">
@@ -16590,7 +16590,7 @@
         <v>19</v>
       </c>
       <c r="E950" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="951">
@@ -16607,7 +16607,7 @@
         <v>19</v>
       </c>
       <c r="E951" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="952">
@@ -16624,7 +16624,7 @@
         <v>19</v>
       </c>
       <c r="E952" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="953">
@@ -16641,7 +16641,7 @@
         <v>19</v>
       </c>
       <c r="E953" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
